--- a/data-raw/create-names.xlsx
+++ b/data-raw/create-names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcmo-my.sharepoint.com/personal/eliot_monaco_kcmo_org/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcmo-my.sharepoint.com/personal/eliot_monaco_kcmo_org/Documents/Documents/kcData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{821F687E-F12B-4338-A132-4A7DE8884FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{821F687E-F12B-4338-A132-4A7DE8884FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567C3A5D-2B32-4819-B873-85D693EEA9E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C713B82-723F-4CC8-8B23-6731BEA5CBC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C713B82-723F-4CC8-8B23-6731BEA5CBC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
   <si>
     <t>acs1_</t>
   </si>
@@ -53,48 +53,6 @@
     <t>zcta_</t>
   </si>
   <si>
-    <t>"acs1_2014"</t>
-  </si>
-  <si>
-    <t>"acs1_2015"</t>
-  </si>
-  <si>
-    <t>"acs1_2016"</t>
-  </si>
-  <si>
-    <t>"acs1_2017"</t>
-  </si>
-  <si>
-    <t>"acs1_2018"</t>
-  </si>
-  <si>
-    <t>"acs1_2019"</t>
-  </si>
-  <si>
-    <t>"acs1_2021"</t>
-  </si>
-  <si>
-    <t>"acs1_2022"</t>
-  </si>
-  <si>
-    <t>"acs1_2023"</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"acs5_city_2014"</t>
-  </si>
-  <si>
-    <t>"acs5_city_2015"</t>
-  </si>
-  <si>
-    <t>"acs5_city_2016"</t>
-  </si>
-  <si>
-    <t>"acs5_city_2017"</t>
-  </si>
-  <si>
     <t>"acs5_city_2018"</t>
   </si>
   <si>
@@ -113,18 +71,6 @@
     <t>"acs5_city_2023"</t>
   </si>
   <si>
-    <t>"acs5_tract_2014"</t>
-  </si>
-  <si>
-    <t>"acs5_tract_2015"</t>
-  </si>
-  <si>
-    <t>"acs5_tract_2016"</t>
-  </si>
-  <si>
-    <t>"acs5_tract_2017"</t>
-  </si>
-  <si>
     <t>"acs5_tract_2018"</t>
   </si>
   <si>
@@ -143,18 +89,6 @@
     <t>"acs5_tract_2023"</t>
   </si>
   <si>
-    <t>"acs5_zcta_2014"</t>
-  </si>
-  <si>
-    <t>"acs5_zcta_2015"</t>
-  </si>
-  <si>
-    <t>"acs5_zcta_2016"</t>
-  </si>
-  <si>
-    <t>"acs5_zcta_2017"</t>
-  </si>
-  <si>
     <t>"acs5_zcta_2018"</t>
   </si>
   <si>
@@ -171,6 +105,63 @@
   </si>
   <si>
     <t>"acs5_zcta_2023"</t>
+  </si>
+  <si>
+    <t>county_</t>
+  </si>
+  <si>
+    <t>blockgroup_</t>
+  </si>
+  <si>
+    <t>"acs5_county_2018"</t>
+  </si>
+  <si>
+    <t>"acs5_county_2019"</t>
+  </si>
+  <si>
+    <t>"acs5_county_2020"</t>
+  </si>
+  <si>
+    <t>"acs5_county_2021"</t>
+  </si>
+  <si>
+    <t>"acs5_county_2022"</t>
+  </si>
+  <si>
+    <t>"acs5_county_2023"</t>
+  </si>
+  <si>
+    <t>"acs5_blockgroup_2018"</t>
+  </si>
+  <si>
+    <t>"acs5_blockgroup_2019"</t>
+  </si>
+  <si>
+    <t>"acs5_blockgroup_2020"</t>
+  </si>
+  <si>
+    <t>"acs5_blockgroup_2021"</t>
+  </si>
+  <si>
+    <t>"acs5_blockgroup_2022"</t>
+  </si>
+  <si>
+    <t>"acs5_blockgroup_2023"</t>
+  </si>
+  <si>
+    <t>"acs1_city_2018"</t>
+  </si>
+  <si>
+    <t>"acs1_city_2019"</t>
+  </si>
+  <si>
+    <t>"acs1_city_2021"</t>
+  </si>
+  <si>
+    <t>"acs1_city_2022"</t>
+  </si>
+  <si>
+    <t>"acs1_city_2023"</t>
   </si>
 </sst>
 </file>
@@ -542,157 +533,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4ECF25D-F29A-47A8-B746-D3ABF000D47E}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2014</v>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
       </c>
       <c r="E1" t="str">
-        <f>_xlfn.CONCAT("""", A1:C1, """")</f>
-        <v>"acs1_2014"</v>
+        <f t="shared" ref="E1:E35" si="0">_xlfn.CONCAT("""", A1:C1, """")</f>
+        <v>"acs1_city_2018"</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2015</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E42" si="0">_xlfn.CONCAT("""", A2:C2, """")</f>
-        <v>"acs1_2015"</v>
+        <f t="shared" si="0"/>
+        <v>"acs1_city_2019"</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>2016</v>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>"acs1_2016"</v>
+        <v>"acs1_city_2021"</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>2017</v>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>"acs1_2017"</v>
+        <v>"acs1_city_2022"</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs1_city_2023"</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>2018</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs1_2018"</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs5_city_2018"</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs5_city_2019"</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs5_city_2020"</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs5_city_2021"</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs5_city_2022"</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs1_2019"</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>2021</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs1_2021"</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2022</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs1_2022"</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>2023</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs1_2023"</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -700,188 +729,197 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>"acs5_city_2014"</v>
+        <v>"acs5_city_2023"</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2015"</v>
+        <f t="shared" ref="E12:E29" si="1">_xlfn.CONCAT("""", A12:C12, """")</f>
+        <v>"acs5_county_2018"</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2016"</v>
+        <f t="shared" si="1"/>
+        <v>"acs5_county_2019"</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2017"</v>
+        <f t="shared" si="1"/>
+        <v>"acs5_county_2020"</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>"acs5_county_2021"</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>"acs5_county_2022"</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>2023</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>"acs5_county_2023"</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>2018</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2018"</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
+      <c r="E18" t="str">
+        <f>_xlfn.CONCAT("""", A18:C18, """")</f>
+        <v>"acs5_tract_2018"</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>2019</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2019"</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
+      <c r="E19" t="str">
+        <f>_xlfn.CONCAT("""", A19:C19, """")</f>
+        <v>"acs5_tract_2019"</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>2020</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2020"</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
+      <c r="E20" t="str">
+        <f>_xlfn.CONCAT("""", A20:C20, """")</f>
+        <v>"acs5_tract_2020"</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>2021</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2021"</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2022"</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2023</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_city_2023"</v>
-      </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>""</v>
+        <f>_xlfn.CONCAT("""", A21:C21, """")</f>
+        <v>"acs5_tract_2021"</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -889,17 +927,17 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2014"</v>
+        <f>_xlfn.CONCAT("""", A22:C22, """")</f>
+        <v>"acs5_tract_2022"</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -907,170 +945,179 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2015"</v>
+        <f>_xlfn.CONCAT("""", A23:C23, """")</f>
+        <v>"acs5_tract_2023"</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2016"</v>
+        <f t="shared" si="1"/>
+        <v>"acs5_blockgroup_2018"</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2017"</v>
+        <f t="shared" si="1"/>
+        <v>"acs5_blockgroup_2019"</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C26">
+        <v>2020</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>"acs5_blockgroup_2020"</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>2021</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>"acs5_blockgroup_2021"</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>"acs5_blockgroup_2022"</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>"acs5_blockgroup_2023"</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
         <v>2018</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2018"</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs5_zcta_2018"</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
         <v>2019</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2019"</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>"acs5_zcta_2019"</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
         <v>2020</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2020"</v>
-      </c>
-      <c r="H28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>2021</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2021"</v>
-      </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>2022</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2022"</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>2023</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_tract_2023"</v>
-      </c>
-      <c r="H31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>""</v>
+        <v>"acs5_zcta_2020"</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1078,17 +1125,17 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>"acs5_zcta_2014"</v>
+        <v>"acs5_zcta_2021"</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1096,17 +1143,17 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>"acs5_zcta_2015"</v>
+        <v>"acs5_zcta_2022"</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1114,140 +1161,14 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>"acs5_zcta_2016"</v>
+        <v>"acs5_zcta_2023"</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>2017</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_zcta_2017"</v>
-      </c>
-      <c r="H36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>2018</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_zcta_2018"</v>
-      </c>
-      <c r="H37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>2019</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_zcta_2019"</v>
-      </c>
-      <c r="H38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>2020</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_zcta_2020"</v>
-      </c>
-      <c r="H39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>2021</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_zcta_2021"</v>
-      </c>
-      <c r="H40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>2022</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_zcta_2022"</v>
-      </c>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>2023</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>"acs5_zcta_2023"</v>
-      </c>
-      <c r="H42" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
